--- a/data/financial_statements/sofp/NSC.xlsx
+++ b/data/financial_statements/sofp/NSC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2798 +584,2864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>456000000</v>
+      </c>
+      <c r="C2">
         <v>1214000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1259000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1571000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1465000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1670000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>998000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1115000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1359000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1143000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>608000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>580000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>452000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>274000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>411000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>358000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>729000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>430000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1072000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>690000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>724000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>642000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>955000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>956000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>984000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>866000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>589000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1101000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>433000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>889000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>524000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>973000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1432000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1667000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1532000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1561000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1004000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>587000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>687000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1148000000</v>
+      </c>
+      <c r="C3">
         <v>1151000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1208000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1070000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>976000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>945000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>941000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>944000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>848000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>883000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>822000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>889000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>920000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>973000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1039000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1048000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1009000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1043000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1035000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>973000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>955000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>973000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>926000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>998000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>945000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>960000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>985000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>961000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>946000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1103000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1055000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1032000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1055000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1103000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1122000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1109000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1024000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1083000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1072000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1158000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>253000000</v>
+      </c>
+      <c r="C4">
         <v>276000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>289000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>264000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>218000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>235000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>246000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>241000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>221000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>247000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>257000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>265000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>244000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>266000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>256000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>228000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>207000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>267000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>260000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>245000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>222000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>245000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>289000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>281000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>257000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>301000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>306000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>315000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>271000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>288000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>277000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>268000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>236000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>249000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>251000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>240000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>223000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>224000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>228000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>246000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>150000000</v>
+      </c>
+      <c r="C5">
         <v>74000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>101000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>110000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>134000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>77000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>155000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>120000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>134000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>90000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>128000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>240000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>337000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>325000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>345000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>235000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>288000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>70000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>179000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>189000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>282000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>57000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>79000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>93000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>133000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>72000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>82000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>101000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>194000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>55000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>67000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>173000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>347000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>50000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>65000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>70000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>87000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>34000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>54000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>65000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>2007000000</v>
+      </c>
+      <c r="C6">
         <v>2715000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2857000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3015000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2167000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2722000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3012000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2303000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2318000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2579000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2350000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2002000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2081000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2016000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1914000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1922000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1862000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2109000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1904000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2479000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2149000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1999000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1936000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2327000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2291000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2317000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2239000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1966000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2512000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2002000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2413000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2115000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2778000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3012000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3266000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3130000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3075000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>2494000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2078000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>2323000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>32156000000</v>
+      </c>
+      <c r="C7">
         <v>31838000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>31787000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>31657000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31653000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>31429000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>31355000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>31312000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>31345000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>31239000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>31217000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>31179000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>31614000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>31394000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>31201000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>31158000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>31091000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>30712000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>30540000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>30396000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>30330000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>30163000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>30033000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>29927000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>29751000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>29467000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>29387000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>29135000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>28992000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>28682000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>28075000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>27829000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>27694000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>27230000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>26927000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>26768000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>26645000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>26413000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>26098000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>25870000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>3694000000</v>
+      </c>
+      <c r="C8">
         <v>3686000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3671000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3697000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3707000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3684000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3658000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3604000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3590000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3566000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3590000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3470000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3428000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>3376000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3301000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3198000000</v>
-      </c>
-      <c r="Q8">
-        <v>3109000000</v>
       </c>
       <c r="R8">
         <v>3109000000</v>
       </c>
       <c r="S8">
+        <v>3109000000</v>
+      </c>
+      <c r="T8">
         <v>3058000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3020000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2981000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2888000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2848000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2809000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2777000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2779000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2639000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2617000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>2572000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>2740000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>2724000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>2701000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2679000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>2610000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>2505000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>2466000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>2439000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>2395000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>2366000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>2341000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>1028000000</v>
+      </c>
+      <c r="C9">
         <v>1067000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1021000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>992000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>966000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>769000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>729000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>718000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>709000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>795000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>805000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>787000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>800000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>714000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>756000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>784000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>177000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>392000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>286000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>267000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>251000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>103000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>105000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>82000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>73000000</v>
-      </c>
-      <c r="Z9">
-        <v>69000000</v>
       </c>
       <c r="AA9">
         <v>69000000</v>
       </c>
       <c r="AB9">
+        <v>69000000</v>
+      </c>
+      <c r="AC9">
         <v>67000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>63000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>103000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>98000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>130000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>49000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>354000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>342000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>336000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>324000000</v>
-      </c>
-      <c r="AL9">
-        <v>63000000</v>
       </c>
       <c r="AM9">
         <v>63000000</v>
       </c>
       <c r="AN9">
+        <v>63000000</v>
+      </c>
+      <c r="AO9">
         <v>65000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>36878000000</v>
+      </c>
+      <c r="C10">
         <v>36591000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>36479000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>36346000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>36326000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>35882000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>35742000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>35634000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>35644000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>35600000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>35612000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>35436000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>35842000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>35484000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>35258000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>35140000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>34377000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>34213000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>33884000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>33683000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>33562000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>33154000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>32986000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>32818000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>32601000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>32315000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>32095000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>31819000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>31627000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>31525000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>30897000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>30660000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>30422000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>30194000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>29774000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>29570000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>29408000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>28871000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>28527000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>28276000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>38885000000</v>
+      </c>
+      <c r="C11">
         <v>39306000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>39336000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>39361000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>38493000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>38604000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>38754000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>37937000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>37962000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>38179000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>37962000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>37438000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>37923000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>37500000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>37172000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>37062000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>36239000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>36322000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>35788000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>36162000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>35711000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>35153000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>34922000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>35145000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>34892000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>34632000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>34334000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>33785000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>34139000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>33527000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>33310000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>32775000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>33200000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>33206000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>33040000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>32700000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>32483000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>31365000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>30605000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>30599000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1293000000</v>
+      </c>
+      <c r="C12">
         <v>1486000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1308000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1181000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1351000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1196000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1116000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1043000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1016000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1273000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1268000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1284000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1428000000</v>
-      </c>
-      <c r="N12">
-        <v>1407000000</v>
       </c>
       <c r="O12">
         <v>1407000000</v>
       </c>
       <c r="P12">
+        <v>1407000000</v>
+      </c>
+      <c r="Q12">
         <v>1334000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1505000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1394000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1323000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1217000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1401000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1287000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1223000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1211000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1215000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1131000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1085000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1119000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1091000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1160000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1144000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1094000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1233000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1387000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1245000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1194000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1265000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1267000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1180000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1188000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>605000000</v>
+        <v>703000000</v>
       </c>
       <c r="C13">
         <v>605000000</v>
       </c>
       <c r="D13">
+        <v>605000000</v>
+      </c>
+      <c r="E13">
         <v>1153000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>553000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>558000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1048000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>501000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>579000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>89000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>85000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>400000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>316000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>751000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>401000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>835000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>585000000</v>
-      </c>
-      <c r="R13">
-        <v>500000000</v>
       </c>
       <c r="S13">
         <v>500000000</v>
       </c>
       <c r="T13">
+        <v>500000000</v>
+      </c>
+      <c r="U13">
         <v>650000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>700000000</v>
-      </c>
-      <c r="V13">
-        <v>600000000</v>
       </c>
       <c r="W13">
         <v>600000000</v>
       </c>
       <c r="X13">
+        <v>600000000</v>
+      </c>
+      <c r="Y13">
         <v>550000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>650000000</v>
-      </c>
-      <c r="Z13">
-        <v>550000000</v>
       </c>
       <c r="AA13">
         <v>550000000</v>
       </c>
       <c r="AB13">
+        <v>550000000</v>
+      </c>
+      <c r="AC13">
         <v>100000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>700000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>600000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>500000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>501000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>102000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>2000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>433000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>445000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>545000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>447000000</v>
-      </c>
-      <c r="AM13">
-        <v>47000000</v>
       </c>
       <c r="AN13">
         <v>47000000</v>
       </c>
+      <c r="AO13">
+        <v>47000000</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>312000000</v>
+      </c>
+      <c r="C14">
         <v>299000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>333000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>443000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>305000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>272000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>302000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>361000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>263000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>257000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>239000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>200000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>229000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>202000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>270000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>338000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>255000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>230000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>269000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>217000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>211000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>206000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>268000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>379000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>245000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>218000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>205000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>299000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>203000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>273000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>295000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>210000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>217000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>301000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>359000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>323000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>225000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>241000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>284000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>319000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>341000000</v>
+      </c>
+      <c r="C15">
         <v>408000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>363000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>370000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>312000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>384000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>330000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>344000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>302000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>386000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>343000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>352000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>327000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>401000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>373000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>378000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>246000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>317000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>260000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>304000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>233000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>320000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>252000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>303000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>229000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>333000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>267000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>313000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>237000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>334000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>264000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>298000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>228000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>392000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>331000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>359000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>270000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>377000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>304000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>350000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>2649000000</v>
+      </c>
+      <c r="C16">
         <v>2798000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2609000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3147000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2521000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2410000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2796000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2249000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2160000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2005000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1935000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2236000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2300000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2761000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2451000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2885000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2591000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2441000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2352000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2388000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2545000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2413000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2343000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2443000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2339000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2232000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2107000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1831000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2231000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2367000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>2203000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>2103000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1780000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2082000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2368000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2321000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>2305000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>2332000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1815000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1904000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>14479000000</v>
+      </c>
+      <c r="C17">
         <v>14463000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>14449000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>13691000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>13287000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>13274000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>12669000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12116000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12102000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>12634000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>12612000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>11807000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>11880000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>11085000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>11076000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>10569000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>10560000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>10635000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>9146000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>9637000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>9136000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>9280000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>9273000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>9569000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>9562000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>9555000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>9549000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>9398000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>9393000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>8896000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>8890000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>8429000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>8883000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>8919000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>8814000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>8909000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>8903000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>8499000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>8430000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>8438000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>7265000000</v>
+      </c>
+      <c r="C18">
         <v>7193000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>7281000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>7217000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7165000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>7089000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7035000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>6977000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6922000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6898000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6874000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>6828000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>6815000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>6689000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6596000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>6518000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6460000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>6464000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>6414000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>6367000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>6324000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>9367000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>9259000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>9199000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>9140000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>9127000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>9047000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>8989000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>8942000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>8840000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>8818000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>8783000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>8817000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>8682000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>8659000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>8647000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>8542000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>8074000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>7974000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>7921000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>1759000000</v>
+      </c>
+      <c r="C19">
         <v>1828000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1843000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1845000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1879000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1944000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1937000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1952000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1987000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1701000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1680000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1683000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1744000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1727000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1738000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1759000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1266000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1302000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1317000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1352000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1347000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1366000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1385000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1407000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1442000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1322000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1358000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1344000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1385000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1295000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1322000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1302000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1312000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1084000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1122000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1130000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1444000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2166000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2198000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2226000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>23503000000</v>
+      </c>
+      <c r="C20">
         <v>23484000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>23573000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>22753000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>22331000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>22307000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>21641000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21045000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>21011000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>21233000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>21166000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>20318000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>20439000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>19501000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>19410000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>18846000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>18286000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>18401000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>16877000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>17356000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>16807000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>20013000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>19917000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>20175000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>20144000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>20004000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>19954000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>19731000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>19720000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>19031000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>19030000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>18514000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>19012000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>18685000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>18595000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>18686000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>18889000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>18739000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>18602000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>18585000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>26152000000</v>
+      </c>
+      <c r="C21">
         <v>26282000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>26182000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>25900000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>24852000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>24717000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>24437000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>23294000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>23171000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>23238000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>23101000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>22554000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>22739000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>22262000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>21861000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>21731000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>20877000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>20842000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>19229000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>19744000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>19352000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>22426000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>22260000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>22618000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>22483000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>22236000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>22061000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>21562000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>21951000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>21398000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>21233000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>20617000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>20792000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>20767000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>20963000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>21007000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>21194000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>21071000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>20417000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>20489000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>2157000000</v>
+      </c>
+      <c r="C22">
         <v>2181000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2190000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2203000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2215000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>2224000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2240000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2241000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2248000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2246000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2217000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2205000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2209000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2219000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2226000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2213000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2216000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1996000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2263000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2255000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2254000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2249000000</v>
-      </c>
-      <c r="W22">
-        <v>2228000000</v>
       </c>
       <c r="X22">
         <v>2228000000</v>
       </c>
       <c r="Y22">
+        <v>2228000000</v>
+      </c>
+      <c r="Z22">
         <v>2179000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>2169000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>2146000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>2147000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>2143000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>2132000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>2146000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>2160000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>2148000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>2150000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2113000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>2085000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>2021000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1979000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1984000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1976000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>230000000</v>
+      </c>
+      <c r="C23">
         <v>233000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>236000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>240000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>242000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>244000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>248000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>251000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>254000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>255000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>256000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>258000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>259000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>262000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>265000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>267000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>269000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>274000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>281000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>284000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>285000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>288000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>290000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>291000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>292000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>293000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>295000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>297000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>299000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>300000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>303000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>306000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>310000000</v>
-      </c>
-      <c r="AH23">
-        <v>311000000</v>
       </c>
       <c r="AI23">
         <v>311000000</v>
@@ -3270,991 +3450,1018 @@
         <v>311000000</v>
       </c>
       <c r="AK23">
-        <v>310000000</v>
+        <v>311000000</v>
       </c>
       <c r="AL23">
         <v>310000000</v>
       </c>
       <c r="AM23">
+        <v>310000000</v>
+      </c>
+      <c r="AN23">
         <v>313000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>316000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>10697000000</v>
+      </c>
+      <c r="C24">
         <v>10987000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>11116000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>11412000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>11586000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>11990000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>12407000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>12737000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>12883000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>12911000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>12863000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>12902000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>13207000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>13310000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>13377000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>13411000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>13440000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>13645000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>14456000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>14327000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>14176000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>10665000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10624000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>10493000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>10425000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>10367000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>10269000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>10221000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>10191000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>10079000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>10017000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>10087000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>10348000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>10156000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>9836000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>9490000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>9339000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>9045000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>8954000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>8904000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>12733000000</v>
+      </c>
+      <c r="C25">
         <v>13024000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>13154000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>13461000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>13641000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>13887000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>14317000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>14643000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>14791000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>14941000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>14861000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>14884000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>15184000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>15238000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>15311000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>15331000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>15362000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>15480000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>16559000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>16418000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>16359000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>12727000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>12662000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>12527000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>12409000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>12396000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>12273000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>12223000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>12188000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>12129000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>12077000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>12158000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>12408000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>12439000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>12077000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>11693000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>11289000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>10294000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>10188000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>10110000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>12733000000</v>
+      </c>
+      <c r="C26">
         <v>13024000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>13154000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>13461000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>13641000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>13887000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>14317000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>14643000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>14791000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>14941000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>14861000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>14884000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>15184000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>15238000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>15311000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>15331000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>15362000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>15480000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>16559000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>16418000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>16359000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>12727000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>12662000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>12527000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>12409000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>12396000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>12273000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>12223000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>12188000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>12129000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>12077000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>12158000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>12408000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>12439000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>12077000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>11693000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>11289000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>10294000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>10188000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>10110000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>38885000000</v>
+      </c>
+      <c r="C27">
         <v>39306000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>39336000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>39361000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>38493000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>38604000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>38754000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>37937000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>37962000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>38179000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>37962000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>37438000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>37923000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>37500000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>37172000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>37062000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>36239000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>36322000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>35788000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>36162000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>35711000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>35153000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>34922000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>35145000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>34892000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>34632000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>34334000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>33785000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>34139000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>33527000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>33310000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>32775000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>33200000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>33206000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>33040000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>32700000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>32483000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>31365000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>30605000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>30599000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>228076000</v>
+      </c>
+      <c r="C28">
         <v>231514000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>234874000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>238333000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>240163000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>243345000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>246972000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>250241000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>252095000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>253985000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>255109000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>256179000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>257905000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>260747000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>263407000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>265967000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>268098000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>272347000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>280030000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>282542000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>284157000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>286149000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>288182000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>289783000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>290418000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>291942000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>293550000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>295738000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>297795000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>298570000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>301387000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>304849000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>308240000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>309442000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>309515000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>309646000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>308878000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>308910000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>311953000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>315088000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>12733000000</v>
+      </c>
+      <c r="C29">
         <v>13024000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>13154000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>13461000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>13641000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13887000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>14317000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>14643000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>14791000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>14941000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>14861000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>14884000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>15184000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>15238000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>15311000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>15331000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>15362000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>15480000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>16559000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>16418000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>16359000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>12727000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>12662000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>12527000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>12409000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>12396000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>12273000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>12223000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>12188000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>12129000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>12077000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>12158000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>12408000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>12439000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>12077000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>11693000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>11289000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>10294000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>10188000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>10110000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>14726000000</v>
+      </c>
+      <c r="C30">
         <v>13854000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>13795000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>13273000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>13001000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>12367000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>12047000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>11619000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>11566000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>11364000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>11554000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>11599000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>11616000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>11384000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>11203000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>10993000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>10787000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>10406000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>9216000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>9215000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>9146000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>9156000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>9231000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>9164000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>9256000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>9121000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>9233000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>8909000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>8992000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>9063000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>8501000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>8406000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>8012000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>7489000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>7580000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>7822000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>7887000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>7942000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>7890000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>7798000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>15182000000</v>
+      </c>
+      <c r="C31">
         <v>15068000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>15054000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>14844000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>13840000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>13832000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>13717000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>12617000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>12681000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>12723000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>12697000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>12207000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>12196000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>11836000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>11477000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>11404000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>11145000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>11135000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>9646000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>10287000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>9836000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>9880000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>9873000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>10119000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>10212000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>10105000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>10099000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>9498000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>10093000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>9496000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>9390000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>8930000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>8985000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>8921000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>9247000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>9354000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>9448000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>8946000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>8477000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>8485000000</v>
       </c>
     </row>
